--- a/chapter13/Chapter13-HW-3-withAnswers.xlsx
+++ b/chapter13/Chapter13-HW-3-withAnswers.xlsx
@@ -7,12 +7,12 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="2-hiddenLayers" sheetId="1" r:id="rId1"/>
+    <sheet name="NN" sheetId="1" r:id="rId1"/>
     <sheet name="SolverIssueAndSolution" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="set1stat_analysis_1_5_2007" localSheetId="0">'2-hiddenLayers'!$E$11:$E$183</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'2-hiddenLayers'!$B$2:$H$5</definedName>
+    <definedName name="set1stat_analysis_1_5_2007" localSheetId="0">NN!$E$11:$E$183</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">NN!$B$2:$H$5</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -26,7 +26,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'2-hiddenLayers'!$T$1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">NN!$T$1</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -1278,16 +1278,16 @@
   <dimension ref="A1:V191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>21636.622905730765</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>-1.6088816103163992</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>1.2664265848529754E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>0.47860665403823943</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0.16752234178218595</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M6">
         <v>39</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>73.603475989482945</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>30.1</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>31.1</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>44.4</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>48.4</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>33.1</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>39.6</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>44.4</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>34.1</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>47.4</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>33.1</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>34.1</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>36.9</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>38.9</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>27.299999999999997</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>42.6</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>30.299999999999997</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>44.6</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>47.4</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>49.4</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>32.1</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>35.1</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>39.6</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>28.299999999999997</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>47.4</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>38.9</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>40.6</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>43.6</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>33.1</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>42.6</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>49.4</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>42.6</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>48.4</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>31.1</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>48.4</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>30.1</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>41.6</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>45.4</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>26.299999999999997</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>48.4</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>39.9</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>43.6</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>35.9</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>52.4</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>52.4</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>38.1</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>47.6</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>52.4</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>52.4</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>52.4</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>42.9</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>42.9</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>52.4</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>33.299999999999997</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>52.4</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>47.6</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>42.9</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>38.1</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>42.9</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>47.6</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>42.9</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>52.4</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>47.6</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>33.299999999999997</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>38.1</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>52.4</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>38.1</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>42.9</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>33.299999999999997</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>52.4</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>57.1</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>52.4</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>38.1</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>52.4</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>52.4</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>52.4</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>42.9</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>38.1</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>52.4</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>47.6</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>47.6</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>47.6</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>52.4</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>42.9</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>38.1</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>47.6</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>33.299999999999997</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>42.9</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>33.299999999999997</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>38.1</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>42.9</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>47.6</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>38.1</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>60.4</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>55.6</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>55.6</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>60.4</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>55.6</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>46.1</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>55.6</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>60.4</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>41.3</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>50.9</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>46.1</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>60.4</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>50.9</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>55.6</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>60.4</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>41.3</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>50.9</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>60.4</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>41.3</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>50.9</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>41.3</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>55.6</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>50.9</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>55.6</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>60.4</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>55.6</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>60.4</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>55.6</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>60.4</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>55.6</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>55.6</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>50.9</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>50.9</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>55.6</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>46.1</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>55.6</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>55.6</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>60.4</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>60.4</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>41.3</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>50.9</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>60.4</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>46.1</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>55.6</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>55.6</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>55.6</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>46.1</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>55.6</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>50.9</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>60.4</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>55.6</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>55.6</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>50.9</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>55.6</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>60.4</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>55.6</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>60.4</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>50.9</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>60.4</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>55.6</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>50.9</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>50.9</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>60.4</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>55.6</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>50.9</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>46.1</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>50.9</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>46.1</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>46.1</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>41.3</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>55.6</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>60.4</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>50.9</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>50.9</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>46.1</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>46.1</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>50.9</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>46.1</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>60.4</v>
       </c>
@@ -15463,7 +15463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>55.6</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>15</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="1">
         <v>38.1</v>
@@ -15704,7 +15704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="1">
         <v>47.6</v>
@@ -15783,7 +15783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="1">
         <v>52.4</v>
@@ -15862,7 +15862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="1">
         <v>47.6</v>
@@ -15941,7 +15941,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="1">
         <v>52.4</v>
@@ -16020,7 +16020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="1">
         <v>57.6</v>
@@ -16099,7 +16099,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="1">
         <v>42.9</v>
@@ -16198,7 +16198,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
